--- a/src/main/resources/templates/reportTemplates/Template_incident_report_ITVAS.xlsx
+++ b/src/main/resources/templates/reportTemplates/Template_incident_report_ITVAS.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Detail!$A$3:$I$3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t xml:space="preserve">Từ ngày </t>
   </si>
@@ -106,6 +110,36 @@
       <t xml:space="preserve">) của các dự án theo thời gian tạo, mức độ ảnh hưởng và trạng thái xử lý </t>
     </r>
   </si>
+  <si>
+    <t>Danh sách chi tiết các ticket</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>Issue key</t>
+  </si>
+  <si>
+    <t>Issue name</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>Incident severity</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Created date</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +230,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,28 +265,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -261,7 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -275,18 +300,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,23 +308,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -597,45 +630,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="6" customWidth="1"/>
     <col min="2" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="13"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -646,13 +679,13 @@
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -665,130 +698,130 @@
       <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <f>SUM(B12:B1200)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <f t="shared" ref="C11:J11" si="0">SUM(C12:C1200)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <f>SUM(B11:J11)</f>
         <v>0</v>
       </c>
@@ -805,4 +838,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:I3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>